--- a/Client/Assets/02. Scripts/Parse/GameData/Gacha.xlsx
+++ b/Client/Assets/02. Scripts/Parse/GameData/Gacha.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GMTJ\기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\FestivalTownProject\Client\Assets\02. Scripts\Parse\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55DB994-E411-4BD5-AC7A-15E31A7451E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E975B3B6-8734-4B71-8C6F-539D26EBC8B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2745" yWindow="4260" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{4FE2F6FA-A971-4D00-9C9F-70C15B0F2373}"/>
+    <workbookView xWindow="-23310" yWindow="1965" windowWidth="22680" windowHeight="11295" xr2:uid="{4FE2F6FA-A971-4D00-9C9F-70C15B0F2373}"/>
   </bookViews>
   <sheets>
     <sheet name="GachaGroup" sheetId="1" r:id="rId1"/>
@@ -37,16 +37,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Name(Info)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Open_Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -55,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>랜덤박스정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기본 상자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -79,10 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>랜덤박스 아이템 제공 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Reward_Item_Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -133,6 +121,10 @@
   </si>
   <si>
     <t>Exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -140,7 +132,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,15 +150,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
@@ -175,18 +158,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -215,24 +192,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -568,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A44DD5-7D06-438B-9FE5-436D9EFF504F}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -582,59 +556,73 @@
     <col min="8" max="8" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>100001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>1001</v>
+      </c>
+      <c r="D2">
+        <v>10001</v>
+      </c>
+      <c r="E2">
+        <v>1000</v>
+      </c>
+      <c r="F2">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>24</v>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>100001</v>
+        <v>100002</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D3">
-        <v>10001</v>
+        <v>10002</v>
       </c>
       <c r="E3">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -643,44 +631,15 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>100002</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>1002</v>
-      </c>
-      <c r="D4">
-        <v>10002</v>
-      </c>
-      <c r="E4">
-        <v>100</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -689,10 +648,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA63B6B-56B9-4D2F-ADF1-A0D874D69E23}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -701,440 +660,427 @@
     <col min="2" max="6" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1001001</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
+      </c>
+      <c r="C2">
+        <v>1001</v>
+      </c>
+      <c r="D2">
+        <v>5000</v>
+      </c>
+      <c r="E2">
+        <v>10001</v>
+      </c>
+      <c r="F2">
+        <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1001001</v>
+        <v>1001002</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>1001</v>
       </c>
       <c r="D3">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="E3">
         <v>10001</v>
       </c>
       <c r="F3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1001002</v>
+        <v>1001003</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>1001</v>
       </c>
       <c r="D4">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="E4">
         <v>10001</v>
       </c>
       <c r="F4">
-        <v>2000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>1001003</v>
+        <v>1001004</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>1001</v>
       </c>
       <c r="D5">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="E5">
         <v>10001</v>
       </c>
       <c r="F5">
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>1001004</v>
+        <v>1001005</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>1001</v>
       </c>
       <c r="D6">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E6">
         <v>10001</v>
       </c>
       <c r="F6">
-        <v>4000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>1001005</v>
+        <v>1001006</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>1001</v>
       </c>
       <c r="D7">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E7">
-        <v>10001</v>
+        <v>10002</v>
       </c>
       <c r="F7">
-        <v>5000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>1001006</v>
+        <v>1001007</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C8">
         <v>1001</v>
       </c>
       <c r="D8">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E8">
         <v>10002</v>
       </c>
       <c r="F8">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>1001007</v>
+        <v>1001008</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>1001</v>
       </c>
       <c r="D9">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E9">
         <v>10002</v>
       </c>
       <c r="F9">
-        <v>1000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>1001008</v>
+        <v>1001009</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10">
         <v>1001</v>
       </c>
       <c r="D10">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E10">
         <v>10002</v>
       </c>
       <c r="F10">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>1001009</v>
+        <v>1001010</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11">
         <v>1001</v>
       </c>
       <c r="D11">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E11">
         <v>10002</v>
       </c>
       <c r="F11">
-        <v>2000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>1001010</v>
+        <v>1002001</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C12">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D12">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="E12">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="F12">
-        <v>2500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>1002001</v>
+        <v>1002002</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C13">
         <v>1002</v>
       </c>
       <c r="D13">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="E13">
         <v>10001</v>
       </c>
       <c r="F13">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>1002002</v>
+        <v>1002003</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C14">
         <v>1002</v>
       </c>
       <c r="D14">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="E14">
         <v>10001</v>
       </c>
       <c r="F14">
-        <v>2000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>1002003</v>
+        <v>1002004</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C15">
         <v>1002</v>
       </c>
       <c r="D15">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="E15">
         <v>10001</v>
       </c>
       <c r="F15">
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>1002004</v>
+        <v>1002005</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C16">
         <v>1002</v>
       </c>
       <c r="D16">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E16">
         <v>10001</v>
       </c>
       <c r="F16">
-        <v>4000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>1002005</v>
+        <v>1002006</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C17">
         <v>1002</v>
       </c>
       <c r="D17">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E17">
-        <v>10001</v>
+        <v>10002</v>
       </c>
       <c r="F17">
-        <v>5000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>1002006</v>
+        <v>1002007</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C18">
         <v>1002</v>
       </c>
       <c r="D18">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E18">
         <v>10002</v>
       </c>
       <c r="F18">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>1002007</v>
+        <v>1002008</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C19">
         <v>1002</v>
       </c>
       <c r="D19">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E19">
         <v>10002</v>
       </c>
       <c r="F19">
-        <v>1000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>1002008</v>
+        <v>1002009</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C20">
         <v>1002</v>
       </c>
       <c r="D20">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E20">
         <v>10002</v>
       </c>
       <c r="F20">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>1002009</v>
+        <v>1002010</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C21">
         <v>1002</v>
       </c>
       <c r="D21">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E21">
         <v>10002</v>
       </c>
       <c r="F21">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>1002010</v>
-      </c>
-      <c r="B22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22">
-        <v>1002</v>
-      </c>
-      <c r="D22">
-        <v>100</v>
-      </c>
-      <c r="E22">
-        <v>10002</v>
-      </c>
-      <c r="F22">
         <v>2500</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
